--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y210"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="R209" s="2" t="inlineStr"/>
     </row>
-    <row r="210">
+    <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
           <t>A 38955-2023</t>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13123,6 +13123,63 @@
         <v>0</v>
       </c>
       <c r="R210" s="2" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>A 43077-2023</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,27 +666,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 4079-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 4079-2021.xlsx", "A 4079-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 4079-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 4079-2021.png", "A 4079-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 4079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 4079-2021.docx", "A 4079-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 4079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 4079-2021.docx", "A 4079-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 4079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 4079-2021.docx", "A 4079-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 4079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 4079-2021.docx", "A 4079-2021")</f>
         <v/>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,27 +760,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 55149-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 55149-2018.xlsx", "A 55149-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 55149-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 55149-2018.png", "A 55149-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 55149-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 55149-2018.docx", "A 55149-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 55149-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 55149-2018.docx", "A 55149-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 55149-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 55149-2018.docx", "A 55149-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 55149-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 55149-2018.docx", "A 55149-2018")</f>
         <v/>
       </c>
     </row>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,27 +851,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 26878-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 26878-2020.xlsx", "A 26878-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 26878-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 26878-2020.png", "A 26878-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 26878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 26878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 26878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 26878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
     </row>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 50292-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 50292-2021.xlsx", "A 50292-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 50292-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 50292-2021.png", "A 50292-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 50292-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 50292-2021.png", "A 50292-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 50292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 50292-2021.docx", "A 50292-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 50292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 50292-2021.docx", "A 50292-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 50292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 50292-2021.docx", "A 50292-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 50292-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 50292-2021.docx", "A 50292-2021")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,27 +1036,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 68232-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 68232-2018.xlsx", "A 68232-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 68232-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 68232-2018.png", "A 68232-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 68232-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 68232-2018.docx", "A 68232-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 68232-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 68232-2018.docx", "A 68232-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 68232-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 68232-2018.docx", "A 68232-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 68232-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 68232-2018.docx", "A 68232-2018")</f>
         <v/>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,27 +1127,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 39630-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 39630-2019.xlsx", "A 39630-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 39630-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 39630-2019.png", "A 39630-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 39630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 39630-2019.docx", "A 39630-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 39630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 39630-2019.docx", "A 39630-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 39630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 39630-2019.docx", "A 39630-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 39630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 39630-2019.docx", "A 39630-2019")</f>
         <v/>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,27 +1213,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 16884-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 16884-2021.xlsx", "A 16884-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 16884-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 16884-2021.png", "A 16884-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 16884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 16884-2021.docx", "A 16884-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 16884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 16884-2021.docx", "A 16884-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 16884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 16884-2021.docx", "A 16884-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 16884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 16884-2021.docx", "A 16884-2021")</f>
         <v/>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,31 +1299,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 37012-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 37012-2022.xlsx", "A 37012-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 37012-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 37012-2022.png", "A 37012-2022")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 37012-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 37012-2022.png", "A 37012-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 37012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 37012-2022.docx", "A 37012-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 37012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 37012-2022.docx", "A 37012-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 37012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 37012-2022.docx", "A 37012-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 37012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 37012-2022.docx", "A 37012-2022")</f>
         <v/>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,27 +1393,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 46523-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 46523-2018.xlsx", "A 46523-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 46523-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 46523-2018.png", "A 46523-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 46523-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 46523-2018.docx", "A 46523-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 46523-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 46523-2018.docx", "A 46523-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 46523-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 46523-2018.docx", "A 46523-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 46523-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 46523-2018.docx", "A 46523-2018")</f>
         <v/>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,27 +1483,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 71387-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 71387-2018.xlsx", "A 71387-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 71387-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 71387-2018.png", "A 71387-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 71387-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 71387-2018.docx", "A 71387-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 71387-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 71387-2018.docx", "A 71387-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 71387-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 71387-2018.docx", "A 71387-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 71387-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 71387-2018.docx", "A 71387-2018")</f>
         <v/>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,27 +1568,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 37961-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 37961-2019.xlsx", "A 37961-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 37961-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 37961-2019.png", "A 37961-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 37961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 37961-2019.docx", "A 37961-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 37961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 37961-2019.docx", "A 37961-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 37961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 37961-2019.docx", "A 37961-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 37961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 37961-2019.docx", "A 37961-2019")</f>
         <v/>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,27 +1658,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 38323-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 38323-2022.xlsx", "A 38323-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 38323-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 38323-2022.png", "A 38323-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 38323-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 38323-2022.docx", "A 38323-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 38323-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 38323-2022.docx", "A 38323-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 38323-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 38323-2022.docx", "A 38323-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 38323-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 38323-2022.docx", "A 38323-2022")</f>
         <v/>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,27 +1743,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 11528-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 11528-2023.xlsx", "A 11528-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 11528-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 11528-2023.png", "A 11528-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 11528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 11528-2023.docx", "A 11528-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 11528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 11528-2023.docx", "A 11528-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 11528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 11528-2023.docx", "A 11528-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 11528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 11528-2023.docx", "A 11528-2023")</f>
         <v/>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11235,23 +11235,23 @@
       </c>
       <c r="R178" s="2" t="inlineStr"/>
       <c r="U178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 18474-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 18474-2023.png", "A 18474-2023")</f>
         <v/>
       </c>
       <c r="V178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 18474-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
       <c r="W178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 18474-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
       <c r="X178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 18474-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
       <c r="Y178">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 18474-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43378</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43396</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43422</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43437</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43452</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43489</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43521</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43546</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43557</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43572</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>43579</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>43587</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>43600</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43640</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43745</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>43790</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43802</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43810</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43846</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43893</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43906</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43917</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43956</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43985</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44008</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44018</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44025</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44041</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44067</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44123</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44132</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44139</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>44161</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>44183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44321</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>44334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44385</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44490</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44581</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44601</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44609</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44624</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44632</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44656</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44701</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44712</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44764</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44830</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44843</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44861</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44893</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44971</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45001</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45033</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45036</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45042</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45047</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45054</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45077</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45079</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45085</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45098</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -936,7 +936,8 @@
 Rödstrupig piplärka
 Spillkråka
 Grönpyrola
-Västlig hakmossa</t>
+Västlig hakmossa
+Zontaggsvamp</t>
         </is>
       </c>
       <c r="S5">
@@ -978,7 +979,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1071,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1162,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1248,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1338,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1428,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1518,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1603,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1693,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,14 +1771,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45544-2018</t>
+          <t>A 31645-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43363</v>
+        <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,11 +1790,16 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1820,21 +1826,49 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 31645-2023.xlsx", "A 31645-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 31645-2023.png", "A 31645-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 31645-2023.docx", "A 31645-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 31645-2023.docx", "A 31645-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 31645-2023.docx", "A 31645-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 31645-2023.docx", "A 31645-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46522-2018</t>
+          <t>A 45544-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43368</v>
+        <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1846,13 +1880,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1889,14 +1918,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51133-2018</t>
+          <t>A 46522-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43378</v>
+        <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,8 +1937,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1946,14 +1980,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50993-2018</t>
+          <t>A 51133-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43382</v>
+        <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +2000,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2003,14 +2037,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 53819-2018</t>
+          <t>A 50993-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43391</v>
+        <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2057,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2060,14 +2094,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 55148-2018</t>
+          <t>A 53819-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43396</v>
+        <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2114,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2117,14 +2151,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 57740-2018</t>
+          <t>A 55148-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43397</v>
+        <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2171,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2174,14 +2208,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56569-2018</t>
+          <t>A 57740-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43402</v>
+        <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2193,13 +2227,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2236,14 +2265,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 57590-2018</t>
+          <t>A 56569-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43404</v>
+        <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2255,8 +2284,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2293,14 +2327,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 58286-2018</t>
+          <t>A 57590-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43409</v>
+        <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2347,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10.6</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2350,14 +2384,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60814-2018</t>
+          <t>A 58286-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43422</v>
+        <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2404,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>10.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2407,14 +2441,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 64069-2018</t>
+          <t>A 60814-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43430</v>
+        <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2461,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2464,14 +2498,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 64066-2018</t>
+          <t>A 64069-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2518,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2521,14 +2555,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 64862-2018</t>
+          <t>A 64066-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43431</v>
+        <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2575,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2578,14 +2612,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 65288-2018</t>
+          <t>A 64862-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43432</v>
+        <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2632,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2635,14 +2669,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 66482-2018</t>
+          <t>A 65288-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43437</v>
+        <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2689,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2692,14 +2726,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 68852-2018</t>
+          <t>A 66482-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43444</v>
+        <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2746,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2749,14 +2783,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 70205-2018</t>
+          <t>A 68852-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43448</v>
+        <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2803,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2806,14 +2840,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 71182-2018</t>
+          <t>A 70205-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43452</v>
+        <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2860,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2863,14 +2897,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1497-2019</t>
+          <t>A 71182-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43473</v>
+        <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2917,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2920,14 +2954,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 1500-2019</t>
+          <t>A 1497-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2940,7 +2974,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2977,14 +3011,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2190-2019</t>
+          <t>A 1500-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43475</v>
+        <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2997,7 +3031,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3034,14 +3068,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2189-2019</t>
+          <t>A 2190-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3054,7 +3088,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3091,14 +3125,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5066-2019</t>
+          <t>A 2189-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43480</v>
+        <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3111,7 +3145,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3148,14 +3182,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3344-2019</t>
+          <t>A 5066-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3168,7 +3202,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3205,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6696-2019</t>
+          <t>A 3344-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43488</v>
+        <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3225,7 +3259,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3262,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5708-2019</t>
+          <t>A 6696-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3282,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3319,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6929-2019</t>
+          <t>A 5708-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3339,7 +3373,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3376,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6951-2019</t>
+          <t>A 6929-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3396,7 +3430,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3433,14 +3467,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11963-2019</t>
+          <t>A 6951-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43521</v>
+        <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3453,7 +3487,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3490,14 +3524,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15197-2019</t>
+          <t>A 11963-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43539</v>
+        <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3510,7 +3544,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3547,14 +3581,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16425-2019</t>
+          <t>A 15197-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43546</v>
+        <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3567,7 +3601,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3604,14 +3638,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18437-2019</t>
+          <t>A 16425-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43557</v>
+        <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3624,7 +3658,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3661,14 +3695,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18433-2019</t>
+          <t>A 18437-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3681,7 +3715,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3718,14 +3752,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19631-2019</t>
+          <t>A 18433-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43566</v>
+        <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3738,7 +3772,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3775,14 +3809,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19627-2019</t>
+          <t>A 19631-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3795,7 +3829,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3832,14 +3866,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20511-2019</t>
+          <t>A 19627-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43572</v>
+        <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3851,13 +3885,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3894,14 +3923,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21263-2019</t>
+          <t>A 20511-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43579</v>
+        <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3913,8 +3942,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3951,14 +3985,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21260-2019</t>
+          <t>A 21263-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3971,7 +4005,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4008,14 +4042,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21432-2019</t>
+          <t>A 21260-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43580</v>
+        <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4028,7 +4062,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4065,14 +4099,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22508-2019</t>
+          <t>A 21432-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43587</v>
+        <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4085,7 +4119,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4122,14 +4156,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24501-2019</t>
+          <t>A 22508-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43600</v>
+        <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4176,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4179,14 +4213,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 26838-2019</t>
+          <t>A 24501-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43613</v>
+        <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4199,7 +4233,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4236,14 +4270,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28641-2019</t>
+          <t>A 26838-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43614</v>
+        <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4290,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4293,14 +4327,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29853-2019</t>
+          <t>A 28641-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43629</v>
+        <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4347,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4350,14 +4384,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30282-2019</t>
+          <t>A 29853-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43633</v>
+        <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4370,7 +4404,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4407,14 +4441,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32073-2019</t>
+          <t>A 30282-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4427,7 +4461,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4464,14 +4498,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30299-2019</t>
+          <t>A 32073-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4484,7 +4518,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4521,14 +4555,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31028-2019</t>
+          <t>A 30299-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43640</v>
+        <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4541,7 +4575,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>7.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4578,14 +4612,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37141-2019</t>
+          <t>A 31028-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43677</v>
+        <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4598,7 +4632,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4635,14 +4669,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37143-2019</t>
+          <t>A 37141-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4655,7 +4689,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4692,14 +4726,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37142-2019</t>
+          <t>A 37143-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4712,7 +4746,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4749,14 +4783,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42351-2019</t>
+          <t>A 37142-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43703</v>
+        <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4769,7 +4803,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4806,14 +4840,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52380-2019</t>
+          <t>A 42351-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43745</v>
+        <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4825,13 +4859,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4868,14 +4897,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 52377-2019</t>
+          <t>A 52380-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4922,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4930,14 +4959,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54782-2019</t>
+          <t>A 52377-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43755</v>
+        <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4949,8 +4978,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4987,14 +5021,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54770-2019</t>
+          <t>A 54782-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5006,13 +5040,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>10.1</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5049,14 +5078,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54810-2019</t>
+          <t>A 54770-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5103,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5111,14 +5140,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55640-2019</t>
+          <t>A 54810-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5130,8 +5159,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5168,14 +5202,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60607-2019</t>
+          <t>A 55640-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43781</v>
+        <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,7 +5222,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5225,14 +5259,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61543-2019</t>
+          <t>A 60607-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43784</v>
+        <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5245,7 +5279,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5282,14 +5316,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62990-2019</t>
+          <t>A 61543-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43790</v>
+        <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5336,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5339,14 +5373,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 65102-2019</t>
+          <t>A 62990-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43802</v>
+        <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,13 +5392,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5401,14 +5430,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66748-2019</t>
+          <t>A 65102-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43810</v>
+        <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,8 +5449,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5458,14 +5492,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2218-2020</t>
+          <t>A 66748-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43846</v>
+        <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5512,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5515,14 +5549,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9238-2020</t>
+          <t>A 2218-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43879</v>
+        <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5569,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5572,14 +5606,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11437-2020</t>
+          <t>A 9238-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43893</v>
+        <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5626,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>11.1</v>
+        <v>3.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5629,14 +5663,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12251-2020</t>
+          <t>A 11437-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5683,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.2</v>
+        <v>11.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5686,14 +5720,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14027-2020</t>
+          <t>A 12251-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43906</v>
+        <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5740,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5743,14 +5777,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16207-2020</t>
+          <t>A 14027-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43917</v>
+        <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5797,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5800,14 +5834,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16232-2020</t>
+          <t>A 16207-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5854,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5857,14 +5891,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18790-2020</t>
+          <t>A 16232-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43931</v>
+        <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5911,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5914,14 +5948,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21500-2020</t>
+          <t>A 18790-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43956</v>
+        <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5968,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5971,14 +6005,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26033-2020</t>
+          <t>A 21500-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43985</v>
+        <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +6025,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6028,14 +6062,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30610-2020</t>
+          <t>A 26033-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44008</v>
+        <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6082,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6085,14 +6119,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32469-2020</t>
+          <t>A 30610-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44018</v>
+        <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6139,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6142,14 +6176,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33855-2020</t>
+          <t>A 32469-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44025</v>
+        <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6196,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6199,14 +6233,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35315-2020</t>
+          <t>A 33855-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44041</v>
+        <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6218,13 +6252,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6261,14 +6290,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35328-2020</t>
+          <t>A 35315-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6315,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6323,14 +6352,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36858-2020</t>
+          <t>A 35328-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44053</v>
+        <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6377,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>41.5</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6385,14 +6414,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 37612-2020</t>
+          <t>A 36858-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44056</v>
+        <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6404,8 +6433,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>41.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6442,14 +6476,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39853-2020</t>
+          <t>A 37612-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44067</v>
+        <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6462,7 +6496,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6499,14 +6533,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52371-2020</t>
+          <t>A 39853-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44112</v>
+        <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6518,13 +6552,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6561,14 +6590,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54990-2020</t>
+          <t>A 52371-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44123</v>
+        <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6580,8 +6609,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6618,14 +6652,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 56030-2020</t>
+          <t>A 54990-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44132</v>
+        <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6672,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6675,14 +6709,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56419-2020</t>
+          <t>A 56030-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44137</v>
+        <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6729,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6732,14 +6766,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57044-2020</t>
+          <t>A 56419-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6786,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6789,14 +6823,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57257-2020</t>
+          <t>A 57044-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6808,13 +6842,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6851,14 +6880,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 57255-2020</t>
+          <t>A 57257-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6876,7 +6905,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6913,14 +6942,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62678-2020</t>
+          <t>A 57255-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44161</v>
+        <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6932,8 +6961,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6970,14 +7004,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 68250-2020</t>
+          <t>A 62678-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44183</v>
+        <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6990,7 +7024,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7027,14 +7061,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1592-2021</t>
+          <t>A 68250-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44209</v>
+        <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7047,7 +7081,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7084,14 +7118,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 1759-2021</t>
+          <t>A 1592-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7104,7 +7138,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7141,14 +7175,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6757-2021</t>
+          <t>A 1759-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44236</v>
+        <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7161,7 +7195,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7198,14 +7232,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7105-2021</t>
+          <t>A 6757-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7218,7 +7252,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7255,14 +7289,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11462-2021</t>
+          <t>A 7105-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44264</v>
+        <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7275,7 +7309,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7312,14 +7346,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14365-2021</t>
+          <t>A 11462-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7331,13 +7365,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7374,14 +7403,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21486-2021</t>
+          <t>A 14365-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44321</v>
+        <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7393,8 +7422,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7431,14 +7465,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23565-2021</t>
+          <t>A 21486-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44334</v>
+        <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7485,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7488,14 +7522,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33820-2021</t>
+          <t>A 23565-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44378</v>
+        <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7542,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7545,14 +7579,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35546-2021</t>
+          <t>A 33820-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44385</v>
+        <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7599,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.1</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7602,14 +7636,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 35546-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44424</v>
+        <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7656,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7659,14 +7693,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44462</v>
+        <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7713,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7716,14 +7750,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51665-2021</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7770,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7773,14 +7807,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53299-2021</t>
+          <t>A 51665-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44467</v>
+        <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7792,13 +7826,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7835,14 +7864,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 53299-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44484</v>
+        <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7854,8 +7883,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7892,14 +7926,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58380-2021</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44488</v>
+        <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7912,7 +7946,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7949,14 +7983,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 58380-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44490</v>
+        <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7968,13 +8002,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>25.2</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8011,14 +8040,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 63567-2021</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44508</v>
+        <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8030,8 +8059,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>25.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8068,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 65926-2021</t>
+          <t>A 63567-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44517</v>
+        <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8088,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8125,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 66778-2021</t>
+          <t>A 65926-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8145,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8182,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 67508-2021</t>
+          <t>A 66778-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44524</v>
+        <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8202,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8239,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2851-2022</t>
+          <t>A 67508-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44581</v>
+        <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8259,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8296,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 2851-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8316,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8353,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4472-2022</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8373,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8410,14 +8444,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 4472-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8430,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8467,14 +8501,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8487,7 +8521,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8524,14 +8558,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8544,7 +8578,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8581,14 +8615,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6468-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44601</v>
+        <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8635,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8638,14 +8672,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8047-2022</t>
+          <t>A 6468-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44609</v>
+        <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8692,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8695,14 +8729,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8217-2022</t>
+          <t>A 8047-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8715,7 +8749,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8752,14 +8786,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 8217-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44624</v>
+        <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8772,7 +8806,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8809,14 +8843,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11661-2022</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44632</v>
+        <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8829,7 +8863,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8866,14 +8900,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14830-2022</t>
+          <t>A 11661-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44656</v>
+        <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8886,7 +8920,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8923,14 +8957,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 14830-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44701</v>
+        <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8943,7 +8977,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8980,14 +9014,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44712</v>
+        <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9000,7 +9034,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9037,14 +9071,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 26052-2022</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44734</v>
+        <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9057,7 +9091,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9094,14 +9128,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 26052-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44746</v>
+        <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9114,7 +9148,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9151,14 +9185,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44748</v>
+        <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9171,7 +9205,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9208,14 +9242,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28564-2022</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9228,7 +9262,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9265,14 +9299,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 28564-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44764</v>
+        <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9285,7 +9319,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9322,14 +9356,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44824</v>
+        <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9342,7 +9376,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9379,14 +9413,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 41979-2022</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44830</v>
+        <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9398,13 +9432,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9441,14 +9470,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 41967-2022</t>
+          <t>A 41979-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9495,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9503,14 +9532,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41967-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9528,7 +9557,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9565,14 +9594,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44843</v>
+        <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9584,8 +9613,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9622,14 +9656,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44848</v>
+        <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9642,7 +9676,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9679,14 +9713,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 50407-2022</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44861</v>
+        <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9699,7 +9733,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9736,14 +9770,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 50407-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44893</v>
+        <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9790,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9793,14 +9827,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60336-2022</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44910</v>
+        <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9812,13 +9846,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9855,14 +9884,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 60336-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44937</v>
+        <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9874,8 +9903,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>14.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9912,14 +9946,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3808-2023</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44951</v>
+        <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9932,7 +9966,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9969,14 +10003,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3859-2023</t>
+          <t>A 3808-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9989,7 +10023,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10026,14 +10060,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7200-2023</t>
+          <t>A 3859-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44965</v>
+        <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10046,7 +10080,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10083,14 +10117,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 7200-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10103,7 +10137,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10140,14 +10174,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 7363-2023</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44971</v>
+        <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10160,7 +10194,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10197,14 +10231,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10271-2023</t>
+          <t>A 7363-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44986</v>
+        <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10251,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10254,14 +10288,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 10271-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10308,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>12.8</v>
+        <v>4.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10311,14 +10345,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10331,7 +10365,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>12.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10368,14 +10402,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10747-2023</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44988</v>
+        <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10387,13 +10421,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10430,14 +10459,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 10747-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10455,7 +10484,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10492,14 +10521,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44989</v>
+        <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10511,8 +10540,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10549,14 +10583,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10603,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10606,14 +10640,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10625,13 +10659,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10668,14 +10697,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 11390-2023</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44993</v>
+        <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10687,8 +10716,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>9.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10725,14 +10759,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 11390-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44994</v>
+        <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10745,7 +10779,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10782,14 +10816,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12150-2023</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44998</v>
+        <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10836,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10839,14 +10873,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 12150-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45001</v>
+        <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10893,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10896,14 +10930,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45014</v>
+        <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10950,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>12.1</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10953,14 +10987,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 15770-2023</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45021</v>
+        <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10973,7 +11007,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>12.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11010,14 +11044,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 16970-2023</t>
+          <t>A 15770-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45033</v>
+        <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11030,7 +11064,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>15.9</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11067,14 +11101,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 17625-2023</t>
+          <t>A 16970-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45036</v>
+        <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11087,7 +11121,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>15.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11124,14 +11158,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18269-2023</t>
+          <t>A 17625-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45041</v>
+        <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11144,7 +11178,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11181,148 +11215,148 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
+          <t>A 18269-2023</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>45041</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
           <t>A 18474-2023</t>
         </is>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B179" s="1" t="n">
         <v>45042</v>
       </c>
-      <c r="C178" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
+      <c r="C179" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
         <v>3.2</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0</v>
-      </c>
-      <c r="P178" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>0</v>
-      </c>
-      <c r="R178" s="2" t="inlineStr"/>
-      <c r="U178">
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" s="2" t="inlineStr"/>
+      <c r="U179">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 18474-2023.png", "A 18474-2023")</f>
         <v/>
       </c>
-      <c r="V178">
+      <c r="V179">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
-      <c r="W178">
+      <c r="W179">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
-      <c r="X178">
+      <c r="X179">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
-      <c r="Y178">
+      <c r="Y179">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 18474-2023.docx", "A 18474-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>A 18381-2023</t>
-        </is>
-      </c>
-      <c r="B179" s="1" t="n">
-        <v>45042</v>
-      </c>
-      <c r="C179" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0</v>
-      </c>
-      <c r="P179" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>0</v>
-      </c>
-      <c r="R179" s="2" t="inlineStr"/>
-    </row>
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 18381-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45043</v>
+        <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11335,7 +11369,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11372,14 +11406,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45047</v>
+        <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11392,7 +11426,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11429,14 +11463,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11449,7 +11483,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11486,14 +11520,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 19443-2023</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45050</v>
+        <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11506,7 +11540,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11543,14 +11577,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19955-2023</t>
+          <t>A 19443-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11563,7 +11597,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11600,14 +11634,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 19955-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45056</v>
+        <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11620,7 +11654,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11657,14 +11691,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11677,7 +11711,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11714,14 +11748,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 21864-2023</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45068</v>
+        <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11734,7 +11768,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11771,14 +11805,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 21864-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11791,7 +11825,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11828,14 +11862,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11848,7 +11882,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11885,14 +11919,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 22186-2023</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45069</v>
+        <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11905,7 +11939,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11942,14 +11976,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22199-2023</t>
+          <t>A 22186-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11962,7 +11996,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11999,14 +12033,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 22125-2023</t>
+          <t>A 22199-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12019,7 +12053,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12056,14 +12090,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 23562-2023</t>
+          <t>A 22125-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45077</v>
+        <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12075,13 +12109,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12118,14 +12147,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 24080-2023</t>
+          <t>A 23562-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12139,11 +12168,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12180,14 +12209,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 24079-2023</t>
+          <t>A 24080-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12205,7 +12234,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>10.2</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12242,14 +12271,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 24912-2023</t>
+          <t>A 24079-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12261,8 +12290,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>10.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12299,14 +12333,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 25013-2023</t>
+          <t>A 24912-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12318,13 +12352,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12361,14 +12390,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 25013-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,8 +12409,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12418,14 +12452,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 27769-2023</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12438,7 +12472,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12475,14 +12509,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 30733-2023</t>
+          <t>A 27769-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45112</v>
+        <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12495,7 +12529,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12532,14 +12566,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 30733-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12551,13 +12585,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12594,14 +12623,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12619,7 +12648,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>21.2</v>
+        <v>3.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12656,14 +12685,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12677,11 +12706,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>21.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12718,14 +12747,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31105-2023</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45113</v>
+        <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12737,8 +12766,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12775,14 +12809,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 31105-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12832,14 +12866,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 31110-2023</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12852,7 +12886,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12889,14 +12923,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 31645-2023</t>
+          <t>A 31110-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45117</v>
+        <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12908,13 +12942,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12958,7 +12987,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13015,7 +13044,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,7 +13106,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13134,7 +13163,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43987</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44459</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26878-2020</t>
+          <t>A 50292-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43987</v>
+        <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -807,19 +807,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -834,12 +834,108 @@
         <v>4</v>
       </c>
       <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Rödstrupig piplärka
+Spillkråka
+Talltita
+Grönpyrola
+Stubbspretmossa
+Västlig hakmossa
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 50292-2021.xlsx", "A 50292-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 50292-2021.png", "A 50292-2021")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 50292-2021.png", "A 50292-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 50292-2021.docx", "A 50292-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 50292-2021.docx", "A 50292-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 50292-2021.docx", "A 50292-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 50292-2021.docx", "A 50292-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26878-2020</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>7</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Spillkråka
@@ -850,125 +946,31 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 26878-2020.xlsx", "A 26878-2020")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 26878-2020.png", "A 26878-2020")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 26878-2020.docx", "A 26878-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 50292-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44459</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Rödstrupig piplärka
-Spillkråka
-Grönpyrola
-Västlig hakmossa
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/artfynd/A 50292-2021.xlsx", "A 50292-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/kartor/A 50292-2021.png", "A 50292-2021")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/knärot/A 50292-2021.png", "A 50292-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomål/A 50292-2021.docx", "A 50292-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/klagomålsmail/A 50292-2021.docx", "A 50292-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsyn/A 50292-2021.docx", "A 50292-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKEBERG/tillsynsmail/A 50292-2021.docx", "A 50292-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -979,7 +981,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1073,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1164,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1250,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1340,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1430,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1520,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1605,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1693,7 +1695,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1780,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1870,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1927,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,7 +1989,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2044,7 +2046,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2101,7 +2103,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2158,7 +2160,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2215,7 +2217,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2272,7 +2274,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2334,7 +2336,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2391,7 +2393,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2448,7 +2450,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2505,7 +2507,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2562,7 +2564,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2619,7 +2621,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2676,7 +2678,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2733,7 +2735,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2790,7 +2792,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2847,7 +2849,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2904,7 +2906,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2961,7 +2963,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3018,7 +3020,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3075,7 +3077,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3132,7 +3134,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3189,7 +3191,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3248,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3305,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3362,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3417,7 +3419,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3474,7 +3476,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3531,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3588,7 +3590,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3645,7 +3647,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3702,7 +3704,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3759,7 +3761,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3816,7 +3818,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3873,7 +3875,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3930,7 +3932,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3994,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4051,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4108,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4163,7 +4165,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4220,7 +4222,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4277,7 +4279,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4334,7 +4336,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4391,7 +4393,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4448,7 +4450,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4505,7 +4507,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4562,7 +4564,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4619,7 +4621,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4676,7 +4678,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4733,7 +4735,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4790,7 +4792,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4847,7 +4849,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4904,7 +4906,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4966,7 +4968,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5030,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5087,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5147,7 +5149,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5209,7 +5211,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5266,7 +5268,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5323,7 +5325,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5380,7 +5382,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5437,7 +5439,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5499,7 +5501,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5556,7 +5558,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5613,7 +5615,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5670,7 +5672,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5727,7 +5729,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5784,7 +5786,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5841,7 +5843,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5898,7 +5900,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5955,7 +5957,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6012,7 +6014,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6069,7 +6071,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6126,7 +6128,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6183,7 +6185,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6240,7 +6242,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6297,7 +6299,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6359,7 +6361,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6421,7 +6423,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6483,7 +6485,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6540,7 +6542,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6597,7 +6599,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6661,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6718,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6775,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6832,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6889,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6949,7 +6951,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7013,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7070,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7127,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7184,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7239,7 +7241,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7296,7 +7298,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7353,7 +7355,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7410,7 +7412,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7472,7 +7474,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7529,7 +7531,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7586,7 +7588,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7643,7 +7645,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7700,7 +7702,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7757,7 +7759,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7814,7 +7816,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7871,7 +7873,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7933,7 +7935,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7990,7 +7992,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8047,7 +8049,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8111,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8168,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8225,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8282,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8339,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8396,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8451,7 +8453,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8508,7 +8510,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8565,7 +8567,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8622,7 +8624,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8679,7 +8681,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8736,7 +8738,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8793,7 +8795,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8850,7 +8852,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8907,7 +8909,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8964,7 +8966,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9021,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9078,7 +9080,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9135,7 +9137,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9192,7 +9194,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9249,7 +9251,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9306,7 +9308,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9363,7 +9365,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9420,7 +9422,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9477,7 +9479,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9539,7 +9541,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9601,7 +9603,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9665,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9722,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9779,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9836,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9893,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9953,7 +9955,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10010,7 +10012,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10067,7 +10069,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10124,7 +10126,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10181,7 +10183,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10238,7 +10240,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10295,7 +10297,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10352,7 +10354,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10409,7 +10411,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10466,7 +10468,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10528,7 +10530,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10590,7 +10592,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10647,7 +10649,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10704,7 +10706,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10766,7 +10768,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10823,7 +10825,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10880,7 +10882,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10937,7 +10939,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10994,7 +10996,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11051,7 +11053,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11108,7 +11110,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11165,7 +11167,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11222,7 +11224,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11279,7 +11281,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11356,7 +11358,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11413,7 +11415,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11470,7 +11472,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11527,7 +11529,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11584,7 +11586,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11641,7 +11643,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11698,7 +11700,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11755,7 +11757,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11812,7 +11814,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11869,7 +11871,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11926,7 +11928,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11983,7 +11985,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12040,7 +12042,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12097,7 +12099,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12154,7 +12156,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12216,7 +12218,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12278,7 +12280,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12340,7 +12342,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12397,7 +12399,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12459,7 +12461,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12516,7 +12518,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12573,7 +12575,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12630,7 +12632,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12692,7 +12694,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12756,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12816,7 +12818,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12873,7 +12875,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12930,7 +12932,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12987,7 +12989,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13044,7 +13046,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13106,7 +13108,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13163,7 +13165,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43987</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43987</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43987</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43987</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>43396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43987</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44295</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43368</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43453</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43683</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>44812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>44993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43396</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43397</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43422</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43430</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43430</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43437</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43539</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43546</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43572</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43600</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43633</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43633</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43677</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43677</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43745</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43745</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43781</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43810</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43893</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43906</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43917</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44018</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44025</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44041</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>44041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44067</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44123</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44132</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44139</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44139</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>44209</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>44236</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44279</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44321</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44462</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44462</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44467</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44524</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44589</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44589</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44589</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44609</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44609</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44632</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44656</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44712</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44734</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44748</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44748</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44830</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44830</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44830</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44843</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44861</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44910</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44986</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44988</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44989</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44989</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44993</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45001</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45021</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45033</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45036</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45041</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45042</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45042</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45047</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45047</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45050</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45054</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45069</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45069</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45079</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45079</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45085</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45093</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45098</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45112</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45112</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>45112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45113</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45113</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45128</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45153</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45163</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
